--- a/biology/Zoologie/Cystomatochilina/Cystomatochilina.xlsx
+++ b/biology/Zoologie/Cystomatochilina/Cystomatochilina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cystomatochilina est un genre fossile de crustacés de la classe des ostracodes, de la sous-classe des Podocopa, de l'ordre des Palaeocopida et de la famille des Eurychilinidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cystomatochilina est créé en 1957 par le paléontologue estonien Valdar Jaanusson (1923-1999)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cystomatochilina est créé en 1957 par le paléontologue estonien Valdar Jaanusson (1923-1999),.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>† Cystomatochilina elegans Přibyl, 1988[3]
-† Cystomatochilina umbonata (Krause, 1892)[4]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>† Cystomatochilina elegans Přibyl, 1988
+† Cystomatochilina umbonata (Krause, 1892)</t>
         </is>
       </c>
     </row>
@@ -573,7 +589,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il ne comporte que deux espèces connues: C. elegans et C. umbonata, toutes deux datant du Silurien. C. elegans a été trouvée en Bohême.
 </t>
